--- a/app/Licenciatura_em_Contabilidade_e_Financas_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Contabilidade_e_Financas_Pos_Laboral.xlsx
@@ -31,38 +31,37 @@
     <sheet name="20151031" sheetId="21" r:id="rId24"/>
     <sheet name="20151046" sheetId="22" r:id="rId25"/>
     <sheet name="20151020" sheetId="23" r:id="rId26"/>
-    <sheet name="20154404" sheetId="24" r:id="rId27"/>
-    <sheet name="20151056" sheetId="25" r:id="rId28"/>
-    <sheet name="20151050" sheetId="26" r:id="rId29"/>
-    <sheet name="20151062" sheetId="27" r:id="rId30"/>
-    <sheet name="20151033" sheetId="28" r:id="rId31"/>
-    <sheet name="20151028" sheetId="29" r:id="rId32"/>
-    <sheet name="20151055" sheetId="30" r:id="rId33"/>
-    <sheet name="20151057" sheetId="31" r:id="rId34"/>
-    <sheet name="20151043" sheetId="32" r:id="rId35"/>
+    <sheet name="20151056" sheetId="24" r:id="rId27"/>
+    <sheet name="20151050" sheetId="25" r:id="rId28"/>
+    <sheet name="20151062" sheetId="26" r:id="rId29"/>
+    <sheet name="20151033" sheetId="27" r:id="rId30"/>
+    <sheet name="20151028" sheetId="28" r:id="rId31"/>
+    <sheet name="20151055" sheetId="29" r:id="rId32"/>
+    <sheet name="20151057" sheetId="30" r:id="rId33"/>
+    <sheet name="20151043" sheetId="31" r:id="rId34"/>
+    <sheet name="20155389" sheetId="32" r:id="rId35"/>
     <sheet name="20151023" sheetId="33" r:id="rId36"/>
     <sheet name="20151054" sheetId="34" r:id="rId37"/>
     <sheet name="20151038" sheetId="35" r:id="rId38"/>
     <sheet name="20151015" sheetId="36" r:id="rId39"/>
     <sheet name="20151059" sheetId="37" r:id="rId40"/>
-    <sheet name="20154401" sheetId="38" r:id="rId41"/>
-    <sheet name="20151025" sheetId="39" r:id="rId42"/>
-    <sheet name="20151027" sheetId="40" r:id="rId43"/>
-    <sheet name="20151039" sheetId="41" r:id="rId44"/>
-    <sheet name="20151044" sheetId="42" r:id="rId45"/>
-    <sheet name="20151024" sheetId="43" r:id="rId46"/>
-    <sheet name="20151058" sheetId="44" r:id="rId47"/>
-    <sheet name="20151040" sheetId="45" r:id="rId48"/>
-    <sheet name="20151021" sheetId="46" r:id="rId49"/>
-    <sheet name="20151014" sheetId="47" r:id="rId50"/>
-    <sheet name="20151061" sheetId="48" r:id="rId51"/>
-    <sheet name="20151052" sheetId="49" r:id="rId52"/>
-    <sheet name="20151019" sheetId="50" r:id="rId53"/>
-    <sheet name="20151060" sheetId="51" r:id="rId54"/>
-    <sheet name="20151049" sheetId="52" r:id="rId55"/>
-    <sheet name="20151053" sheetId="53" r:id="rId56"/>
-    <sheet name="Sheet2" sheetId="54" r:id="rId57"/>
-    <sheet name="Sheet3" sheetId="55" r:id="rId58"/>
+    <sheet name="20151025" sheetId="38" r:id="rId41"/>
+    <sheet name="20151027" sheetId="39" r:id="rId42"/>
+    <sheet name="20151039" sheetId="40" r:id="rId43"/>
+    <sheet name="20151044" sheetId="41" r:id="rId44"/>
+    <sheet name="20151024" sheetId="42" r:id="rId45"/>
+    <sheet name="20151058" sheetId="43" r:id="rId46"/>
+    <sheet name="20151040" sheetId="44" r:id="rId47"/>
+    <sheet name="20151021" sheetId="45" r:id="rId48"/>
+    <sheet name="20151014" sheetId="46" r:id="rId49"/>
+    <sheet name="20151061" sheetId="47" r:id="rId50"/>
+    <sheet name="20151052" sheetId="48" r:id="rId51"/>
+    <sheet name="20151019" sheetId="49" r:id="rId52"/>
+    <sheet name="20151060" sheetId="50" r:id="rId53"/>
+    <sheet name="20151049" sheetId="51" r:id="rId54"/>
+    <sheet name="20151053" sheetId="52" r:id="rId55"/>
+    <sheet name="Sheet2" sheetId="53" r:id="rId56"/>
+    <sheet name="Sheet3" sheetId="54" r:id="rId57"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -219,9 +218,6 @@
     <t>Francilia Eugenio Zevo</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -258,9 +254,6 @@
     <t>Luisa Maria Jose</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -291,9 +284,6 @@
     <t>Essineta Tovele</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -318,9 +308,6 @@
     <t>Loiane Maconane Machohe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100482694Q</t>
   </si>
   <si>
@@ -342,9 +329,6 @@
     <t>Rosalina Ernesto Timana</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110101947379Q</t>
   </si>
   <si>
@@ -459,9 +443,6 @@
     <t>ZÉlia Alberto Tchucana</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110400091590I</t>
   </si>
   <si>
@@ -549,9 +530,6 @@
     <t>Ana Sefomanhane</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100114315S</t>
   </si>
   <si>
@@ -729,189 +707,186 @@
     <t>+258828973230</t>
   </si>
   <si>
-    <t>Matsinhe</t>
-  </si>
-  <si>
-    <t>Nilza Amelia</t>
+    <t>Matola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermenegildo Diogo </t>
+  </si>
+  <si>
+    <t>1990-02-04</t>
+  </si>
+  <si>
+    <t>Diogo Pereira Matola</t>
+  </si>
+  <si>
+    <t>Ana Ernesto Macie</t>
+  </si>
+  <si>
+    <t>110101173717B</t>
+  </si>
+  <si>
+    <t>+258828450953</t>
+  </si>
+  <si>
+    <t>Mate</t>
+  </si>
+  <si>
+    <t>Lurdes Lucia Ernesto</t>
+  </si>
+  <si>
+    <t>1989-11-13</t>
+  </si>
+  <si>
+    <t>Ernesto Mate</t>
+  </si>
+  <si>
+    <t>110104021494Q</t>
+  </si>
+  <si>
+    <t>+25884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernesto Sousa </t>
+  </si>
+  <si>
+    <t>1993-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sousa Mate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel Funjua </t>
+  </si>
+  <si>
+    <t>110101667243B</t>
+  </si>
+  <si>
+    <t>+258845501988</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Matavele</t>
+  </si>
+  <si>
+    <t>Eduardo Francisco Junior</t>
+  </si>
+  <si>
+    <t>1991-06-29</t>
+  </si>
+  <si>
+    <t>Eduardo Framcisco Matavele</t>
+  </si>
+  <si>
+    <t>Violeta Leonardo Macie</t>
+  </si>
+  <si>
+    <t>100102075632B</t>
+  </si>
+  <si>
+    <t>+258841060314</t>
+  </si>
+  <si>
+    <t>Outra - Prov Maputo</t>
+  </si>
+  <si>
+    <t>Massuque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telma Marino </t>
+  </si>
+  <si>
+    <t>1977-12-03</t>
+  </si>
+  <si>
+    <t>Marino Moises Massuque</t>
+  </si>
+  <si>
+    <t>Luisa.c.manuel Cossa</t>
+  </si>
+  <si>
+    <t>110102087997J</t>
+  </si>
+  <si>
+    <t>+258827554382</t>
+  </si>
+  <si>
+    <t>Massango</t>
+  </si>
+  <si>
+    <t>Azarias</t>
+  </si>
+  <si>
+    <t>1989-01-23</t>
+  </si>
+  <si>
+    <t>Azarias IsaÍas Massango</t>
+  </si>
+  <si>
+    <t>Clara Dos Anjos Mungoi</t>
+  </si>
+  <si>
+    <t>110100251064B</t>
+  </si>
+  <si>
+    <t>+258848119400</t>
+  </si>
+  <si>
+    <t>Manjate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florinda Gaspar </t>
+  </si>
+  <si>
+    <t>1981-08-26</t>
+  </si>
+  <si>
+    <t>Gaspar Gabriel Manjate</t>
+  </si>
+  <si>
+    <t>HortÊncia JuvÊncio Macave</t>
+  </si>
+  <si>
+    <t>Talao de Bilhete de Identificacao</t>
+  </si>
+  <si>
+    <t>+258825808669</t>
+  </si>
+  <si>
+    <t>Manhique</t>
+  </si>
+  <si>
+    <t>Hermenegildo Carlos</t>
+  </si>
+  <si>
+    <t>1989-01-08</t>
+  </si>
+  <si>
+    <t>Incognita</t>
+  </si>
+  <si>
+    <t>Aida Zeferino Manhique</t>
+  </si>
+  <si>
+    <t>110262134L</t>
+  </si>
+  <si>
+    <t>+258828741821</t>
+  </si>
+  <si>
+    <t>Mangueze</t>
+  </si>
+  <si>
+    <t>Belarmina Agostinho</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Matola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermenegildo Diogo </t>
-  </si>
-  <si>
-    <t>1990-02-04</t>
-  </si>
-  <si>
-    <t>Diogo Pereira Matola</t>
-  </si>
-  <si>
-    <t>Ana Ernesto Macie</t>
-  </si>
-  <si>
-    <t>110101173717B</t>
-  </si>
-  <si>
-    <t>+258828450953</t>
-  </si>
-  <si>
-    <t>Mate</t>
-  </si>
-  <si>
-    <t>Lurdes Lucia Ernesto</t>
-  </si>
-  <si>
-    <t>1989-11-13</t>
-  </si>
-  <si>
-    <t>Ernesto Mate</t>
-  </si>
-  <si>
-    <t>110104021494Q</t>
-  </si>
-  <si>
-    <t>+25884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernesto Sousa </t>
-  </si>
-  <si>
-    <t>1993-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sousa Mate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel Funjua </t>
-  </si>
-  <si>
-    <t>110101667243B</t>
-  </si>
-  <si>
-    <t>+258845501988</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Eduardo Mondlane</t>
-  </si>
-  <si>
-    <t>Matavele</t>
-  </si>
-  <si>
-    <t>Eduardo Francisco Junior</t>
-  </si>
-  <si>
-    <t>1991-06-29</t>
-  </si>
-  <si>
-    <t>Eduardo Framcisco Matavele</t>
-  </si>
-  <si>
-    <t>Violeta Leonardo Macie</t>
-  </si>
-  <si>
-    <t>100102075632B</t>
-  </si>
-  <si>
-    <t>+258841060314</t>
-  </si>
-  <si>
-    <t>Outra - Prov Maputo</t>
-  </si>
-  <si>
-    <t>Massuque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telma Marino </t>
-  </si>
-  <si>
-    <t>1977-12-03</t>
-  </si>
-  <si>
-    <t>Marino Moises Massuque</t>
-  </si>
-  <si>
-    <t>Luisa.c.manuel Cossa</t>
-  </si>
-  <si>
-    <t>110102087997J</t>
-  </si>
-  <si>
-    <t>+258827554382</t>
-  </si>
-  <si>
-    <t>Massango</t>
-  </si>
-  <si>
-    <t>Azarias</t>
-  </si>
-  <si>
-    <t>1989-01-23</t>
-  </si>
-  <si>
-    <t>Azarias IsaÍas Massango</t>
-  </si>
-  <si>
-    <t>Clara Dos Anjos Mungoi</t>
-  </si>
-  <si>
-    <t>110100251064B</t>
-  </si>
-  <si>
-    <t>+258848119400</t>
-  </si>
-  <si>
-    <t>Manjate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florinda Gaspar </t>
-  </si>
-  <si>
-    <t>1981-08-26</t>
-  </si>
-  <si>
-    <t>Gaspar Gabriel Manjate</t>
-  </si>
-  <si>
-    <t>HortÊncia JuvÊncio Macave</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
-    <t>Talao de Bilhete de Identificacao</t>
-  </si>
-  <si>
-    <t>+258825808669</t>
-  </si>
-  <si>
-    <t>Manhique</t>
-  </si>
-  <si>
-    <t>Hermenegildo Carlos</t>
-  </si>
-  <si>
-    <t>1989-01-08</t>
-  </si>
-  <si>
-    <t>Incognita</t>
-  </si>
-  <si>
-    <t>Aida Zeferino Manhique</t>
-  </si>
-  <si>
-    <t>110262134L</t>
-  </si>
-  <si>
-    <t>+258828741821</t>
-  </si>
-  <si>
     <t>Mahumane</t>
   </si>
   <si>
@@ -1012,9 +987,6 @@
   </si>
   <si>
     <t>+258828309754</t>
-  </si>
-  <si>
-    <t>Chirombe Augusto</t>
   </si>
   <si>
     <t>Loforte</t>
@@ -2595,7 +2567,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2611,7 +2583,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2627,7 +2599,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2643,7 +2615,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2659,7 +2631,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2674,9 +2646,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2684,7 +2654,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2695,7 +2665,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2704,7 +2674,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2716,7 +2686,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2724,7 +2694,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2820,7 +2790,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2863,7 +2833,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3190,7 +3160,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3206,7 +3176,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3222,7 +3192,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3238,7 +3208,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3254,7 +3224,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3269,9 +3239,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3279,7 +3247,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3290,7 +3258,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3299,7 +3267,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3311,7 +3279,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3319,7 +3287,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3415,7 +3383,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3458,7 +3426,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3785,7 +3753,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3801,7 +3769,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3817,7 +3785,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3833,7 +3801,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3849,7 +3817,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3864,9 +3832,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3874,7 +3840,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3885,7 +3851,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3894,7 +3860,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3906,7 +3872,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3914,7 +3880,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4010,7 +3976,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4053,7 +4019,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4380,7 +4346,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4396,7 +4362,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4412,7 +4378,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4428,7 +4394,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4444,7 +4410,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4459,9 +4425,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4469,7 +4433,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4480,7 +4444,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4489,7 +4453,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4501,7 +4465,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4509,7 +4473,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4605,7 +4569,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4648,7 +4612,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4975,7 +4939,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4991,7 +4955,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5007,7 +4971,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5023,7 +4987,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5039,7 +5003,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5054,9 +5018,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5064,7 +5026,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5075,7 +5037,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5084,7 +5046,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5096,7 +5058,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5104,7 +5066,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5200,7 +5162,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5243,7 +5205,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5570,7 +5532,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5586,7 +5548,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5602,7 +5564,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5618,7 +5580,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5634,7 +5596,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5649,9 +5611,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5659,7 +5619,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5670,7 +5630,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5679,7 +5639,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5691,7 +5651,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5699,7 +5659,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5795,7 +5755,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5838,7 +5798,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6165,7 +6125,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6181,7 +6141,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6197,7 +6157,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6213,7 +6173,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6229,7 +6189,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6244,9 +6204,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6254,7 +6212,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6265,7 +6223,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6274,7 +6232,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6286,7 +6244,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6294,7 +6252,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6390,7 +6348,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6433,7 +6391,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6760,7 +6718,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6776,7 +6734,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6792,7 +6750,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6808,7 +6766,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6824,7 +6782,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6839,9 +6797,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6849,7 +6805,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6860,7 +6816,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6869,7 +6825,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6881,7 +6837,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6889,7 +6845,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6985,7 +6941,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7028,7 +6984,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7355,7 +7311,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7371,7 +7327,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7387,7 +7343,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7403,7 +7359,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7419,7 +7375,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7434,9 +7390,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7444,7 +7398,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7455,7 +7409,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7464,7 +7418,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7476,7 +7430,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7484,7 +7438,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7580,7 +7534,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7623,7 +7577,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7950,7 +7904,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7966,7 +7920,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7982,7 +7936,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7998,7 +7952,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8014,7 +7968,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8029,9 +7983,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8039,7 +7991,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8050,7 +8002,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8059,7 +8011,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8071,7 +8023,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8079,7 +8031,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8175,7 +8127,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8218,7 +8170,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8624,9 +8576,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8634,7 +8584,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8645,7 +8595,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8654,7 +8604,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8666,7 +8616,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8674,7 +8624,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8770,7 +8720,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8813,7 +8763,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9140,7 +9090,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9156,7 +9106,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9172,7 +9122,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9188,7 +9138,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9204,7 +9154,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9219,9 +9169,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9229,7 +9177,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9240,7 +9188,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9249,7 +9197,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9261,7 +9209,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9269,7 +9217,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9365,7 +9313,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9408,7 +9356,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9735,7 +9683,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9751,7 +9699,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9767,7 +9715,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9783,7 +9731,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9799,7 +9747,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9814,9 +9762,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9824,7 +9770,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9835,7 +9781,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9844,7 +9790,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9856,7 +9802,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9864,7 +9810,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9960,7 +9906,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10003,7 +9949,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10330,7 +10276,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10346,7 +10292,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10362,7 +10308,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10378,7 +10324,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10394,7 +10340,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10409,9 +10355,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10419,7 +10363,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10430,7 +10374,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10439,7 +10383,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10451,7 +10395,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10459,7 +10403,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10555,7 +10499,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10598,7 +10542,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10925,7 +10869,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10941,7 +10885,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10957,7 +10901,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10973,7 +10917,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10989,7 +10933,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11004,9 +10948,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11014,7 +10956,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11025,7 +10967,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11034,7 +10976,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11046,7 +10988,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11054,7 +10996,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11150,7 +11092,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11193,7 +11135,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11444,7 +11386,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -11494,7 +11438,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154404</v>
+        <v>20151056</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11518,7 +11462,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11534,7 +11478,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11549,7 +11493,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>214</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -11563,7 +11509,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11577,7 +11525,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11598,7 +11548,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -11607,14 +11559,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -11624,13 +11580,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>217</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -11725,7 +11685,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11751,7 +11711,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2009</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -11765,7 +11727,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12067,7 +12031,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151056</v>
+        <v>20151050</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12091,7 +12055,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12107,7 +12071,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12123,7 +12087,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12139,7 +12103,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12155,7 +12119,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12170,9 +12134,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12180,7 +12142,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12191,7 +12153,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12200,7 +12162,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12212,7 +12174,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12220,7 +12182,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12316,7 +12278,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12343,7 +12305,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12359,7 +12321,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12662,7 +12624,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151050</v>
+        <v>20151062</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12686,7 +12648,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12702,7 +12664,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12718,7 +12680,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12734,7 +12696,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12750,7 +12712,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12765,9 +12727,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12775,7 +12735,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12786,7 +12746,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12795,7 +12755,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12807,7 +12767,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12815,7 +12775,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12911,7 +12871,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12938,7 +12898,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12954,7 +12914,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13257,7 +13217,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151062</v>
+        <v>20151033</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13281,7 +13241,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13297,7 +13257,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13313,7 +13273,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13329,7 +13289,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13345,7 +13305,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13360,9 +13320,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13370,7 +13328,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13381,7 +13339,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13390,7 +13348,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13402,7 +13360,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13410,7 +13368,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13506,7 +13464,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13533,7 +13491,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13549,7 +13507,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13852,7 +13810,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151033</v>
+        <v>20151028</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13876,7 +13834,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13892,7 +13850,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13908,7 +13866,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13924,7 +13882,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13940,7 +13898,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13955,9 +13913,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13965,7 +13921,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13976,7 +13932,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13985,7 +13941,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13997,7 +13953,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14005,7 +13961,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14101,7 +14057,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14128,7 +14084,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14144,7 +14100,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14447,7 +14403,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151028</v>
+        <v>20151055</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14471,7 +14427,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14487,7 +14443,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14503,7 +14459,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14519,7 +14475,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14535,7 +14491,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14550,9 +14506,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14560,7 +14514,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14571,7 +14525,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14580,7 +14534,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14592,7 +14546,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14600,7 +14554,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14696,7 +14650,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14723,7 +14677,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14739,7 +14693,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15066,7 +15020,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15082,7 +15036,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15098,7 +15052,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15114,7 +15068,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15130,7 +15084,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15145,9 +15099,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15155,7 +15107,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15166,7 +15118,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15175,7 +15127,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15187,7 +15139,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15195,7 +15147,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15291,7 +15243,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15334,7 +15286,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15637,7 +15589,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151055</v>
+        <v>20151057</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15661,7 +15613,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15677,7 +15629,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15693,7 +15645,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15709,7 +15661,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15725,7 +15677,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15740,9 +15692,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15750,7 +15700,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15761,7 +15711,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15770,7 +15720,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15782,15 +15732,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>263</v>
+      <c r="H17" s="20">
+        <v>1032166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15886,7 +15836,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15913,7 +15863,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15929,7 +15879,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16232,7 +16182,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151057</v>
+        <v>20151043</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16256,7 +16206,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16272,7 +16222,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16288,7 +16238,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16304,7 +16254,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16320,7 +16270,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16335,9 +16285,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>270</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16345,7 +16293,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16356,7 +16304,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16365,7 +16313,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16377,15 +16325,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>1032166</v>
+      <c r="H17" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16481,7 +16429,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16508,7 +16456,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16524,7 +16472,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16775,9 +16723,7 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -16827,7 +16773,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151043</v>
+        <v>20155389</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16851,7 +16797,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16867,7 +16813,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16882,9 +16828,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -16898,9 +16842,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -16914,9 +16856,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>277</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -16930,18 +16870,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -16950,18 +16886,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -16971,17 +16903,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>278</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -17076,7 +17004,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17102,9 +17030,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2011</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -17118,9 +17044,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -17446,7 +17370,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17462,7 +17386,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17478,7 +17402,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17494,7 +17418,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17510,7 +17434,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17525,9 +17449,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17535,7 +17457,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17546,7 +17468,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17555,7 +17477,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17567,7 +17489,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17575,7 +17497,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17671,7 +17593,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17714,7 +17636,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18041,7 +17963,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18057,7 +17979,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18073,7 +17995,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18089,7 +18011,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18105,7 +18027,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18120,9 +18042,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18130,7 +18050,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18141,7 +18061,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18150,7 +18070,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18162,7 +18082,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18170,7 +18090,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18266,7 +18186,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18309,7 +18229,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18636,7 +18556,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18652,7 +18572,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18668,7 +18588,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18684,7 +18604,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18700,7 +18620,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18715,9 +18635,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18725,7 +18643,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18736,7 +18654,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18745,7 +18663,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18757,7 +18675,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18765,7 +18683,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18861,7 +18779,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18904,7 +18822,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19231,7 +19149,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19247,7 +19165,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19263,7 +19181,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19279,7 +19197,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19295,7 +19213,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19310,9 +19228,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19320,7 +19236,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19331,7 +19247,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19340,7 +19256,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19352,7 +19268,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19360,7 +19276,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19456,7 +19372,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19499,7 +19415,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19826,7 +19742,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19842,7 +19758,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19858,7 +19774,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19874,7 +19790,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19890,7 +19806,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19905,9 +19821,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19915,7 +19829,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19926,7 +19840,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19935,7 +19849,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19947,7 +19861,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19955,7 +19869,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20051,7 +19965,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20094,7 +20008,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20345,7 +20259,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20395,7 +20311,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154401</v>
+        <v>20151025</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20419,7 +20335,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20435,7 +20351,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20450,7 +20366,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20464,7 +20382,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>309</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20478,7 +20398,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>310</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20499,7 +20421,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20508,14 +20432,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20525,13 +20453,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>311</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20626,7 +20558,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20652,7 +20584,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2009</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20666,7 +20600,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -20968,7 +20904,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151025</v>
+        <v>20151027</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20992,7 +20928,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21008,7 +20944,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21024,7 +20960,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21040,7 +20976,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21056,7 +20992,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21071,9 +21007,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21081,7 +21015,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21092,7 +21026,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21101,7 +21035,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21113,7 +21047,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21121,7 +21055,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21217,7 +21151,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21244,7 +21178,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21260,7 +21194,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21587,7 +21521,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21603,7 +21537,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21619,7 +21553,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21635,7 +21569,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21651,7 +21585,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21666,9 +21600,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21676,7 +21608,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21687,7 +21619,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21696,7 +21628,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21708,7 +21640,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21716,7 +21648,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21812,7 +21744,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21855,7 +21787,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22158,7 +22090,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151027</v>
+        <v>20151039</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22182,7 +22114,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22198,7 +22130,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22214,7 +22146,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22230,7 +22162,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22246,7 +22178,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22261,9 +22193,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22271,7 +22201,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22282,7 +22212,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22291,7 +22221,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22303,7 +22233,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22311,7 +22241,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22407,7 +22337,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22434,7 +22364,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22450,7 +22380,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>327</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22753,7 +22683,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151039</v>
+        <v>20151044</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22777,7 +22707,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22793,7 +22723,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22809,7 +22739,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22825,7 +22755,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22841,7 +22771,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22856,9 +22786,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22866,7 +22794,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22877,7 +22805,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22886,7 +22814,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22898,7 +22826,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22906,7 +22834,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23002,7 +22930,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23029,7 +22957,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23045,7 +22973,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23348,7 +23276,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151044</v>
+        <v>20151024</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23372,7 +23300,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23388,7 +23316,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23404,7 +23332,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23420,7 +23348,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23436,7 +23364,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23451,9 +23379,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23461,7 +23387,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23472,7 +23398,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23481,7 +23407,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23493,7 +23419,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23501,7 +23427,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23597,7 +23523,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23624,7 +23550,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23640,7 +23566,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23943,7 +23869,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151024</v>
+        <v>20151058</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23967,7 +23893,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23983,7 +23909,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23999,7 +23925,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24015,7 +23941,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24031,7 +23957,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24046,9 +23972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24056,7 +23980,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24067,7 +23991,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24076,7 +24000,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24088,7 +24012,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24096,7 +24020,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24192,7 +24116,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24219,7 +24143,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24235,7 +24159,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24538,7 +24462,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151058</v>
+        <v>20151040</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24562,7 +24486,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24578,7 +24502,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24594,7 +24518,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24610,7 +24534,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24626,7 +24550,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24641,9 +24565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24651,7 +24573,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24662,7 +24584,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24671,7 +24593,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24683,7 +24605,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24691,7 +24613,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24787,7 +24709,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24830,7 +24752,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25133,7 +25055,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151040</v>
+        <v>20151021</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25157,7 +25079,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25173,7 +25095,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25189,7 +25111,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25205,7 +25127,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25221,7 +25143,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25236,9 +25158,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25246,7 +25166,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25257,7 +25177,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25266,7 +25186,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25278,7 +25198,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25286,7 +25206,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25382,7 +25302,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25409,7 +25329,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25425,7 +25345,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25728,7 +25648,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151021</v>
+        <v>20151014</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25752,7 +25672,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25768,7 +25688,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25784,7 +25704,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25800,7 +25720,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25816,7 +25736,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25831,9 +25751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25841,7 +25759,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25852,7 +25770,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25861,7 +25779,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25873,7 +25791,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25881,7 +25799,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25977,7 +25895,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26004,7 +25922,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26020,7 +25938,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26323,7 +26241,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151014</v>
+        <v>20151061</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26347,7 +26265,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26363,7 +26281,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26379,7 +26297,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26395,7 +26313,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26411,7 +26329,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26426,9 +26344,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26436,7 +26352,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26447,7 +26363,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26456,7 +26372,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26468,7 +26384,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26476,7 +26392,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26572,7 +26488,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26599,7 +26515,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26615,7 +26531,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26918,7 +26834,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151061</v>
+        <v>20151052</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26942,7 +26858,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26958,7 +26874,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26974,7 +26890,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26990,7 +26906,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27006,7 +26922,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27021,9 +26937,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27031,7 +26945,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27042,7 +26956,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27051,7 +26965,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27063,7 +26977,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27071,7 +26985,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27167,7 +27081,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27194,7 +27108,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -27210,7 +27124,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27513,7 +27427,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151052</v>
+        <v>20151019</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27537,7 +27451,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27553,7 +27467,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27569,7 +27483,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27585,7 +27499,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27601,7 +27515,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27616,9 +27530,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27626,7 +27538,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27637,7 +27549,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27646,7 +27558,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27658,7 +27570,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27666,7 +27578,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27762,7 +27674,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27805,7 +27717,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28132,7 +28044,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28148,7 +28060,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28180,7 +28092,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28196,7 +28108,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28211,9 +28123,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28221,7 +28131,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28232,7 +28142,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28241,7 +28151,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28253,7 +28163,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28261,7 +28171,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28357,7 +28267,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28400,7 +28310,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28703,7 +28613,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151019</v>
+        <v>20151060</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28727,7 +28637,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28743,7 +28653,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28759,7 +28669,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28775,7 +28685,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28791,7 +28701,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28806,9 +28716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28816,7 +28724,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28827,7 +28735,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28836,7 +28744,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28848,7 +28756,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28856,7 +28764,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28952,7 +28860,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28979,7 +28887,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28995,7 +28903,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29298,7 +29206,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151060</v>
+        <v>20151049</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29322,7 +29230,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29338,7 +29246,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29354,7 +29262,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29370,7 +29278,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29386,7 +29294,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29401,9 +29309,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29411,7 +29317,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29422,7 +29328,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29431,7 +29337,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29443,7 +29349,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29451,7 +29357,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29547,7 +29453,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29574,7 +29480,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29590,7 +29496,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29893,7 +29799,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151049</v>
+        <v>20151053</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29917,7 +29823,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29933,7 +29839,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29949,7 +29855,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29965,7 +29871,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29981,7 +29887,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29996,9 +29902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30006,7 +29910,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30017,7 +29921,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30026,7 +29930,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30038,7 +29942,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30046,7 +29950,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30142,7 +30046,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30185,7 +30089,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30388,601 +30292,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151053</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -31006,7 +30315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31163,7 +30472,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31179,7 +30488,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31195,7 +30504,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31211,7 +30520,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31227,7 +30536,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31242,9 +30551,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31252,7 +30559,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31263,7 +30570,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31272,7 +30579,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31284,7 +30591,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31292,7 +30599,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31388,7 +30695,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31431,7 +30738,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31758,7 +31065,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31774,7 +31081,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31790,7 +31097,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31806,7 +31113,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31822,7 +31129,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31837,9 +31144,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31847,7 +31152,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31858,7 +31163,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31867,7 +31172,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31879,7 +31184,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31887,7 +31192,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31983,7 +31288,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32026,7 +31331,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32353,7 +31658,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32369,7 +31674,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32385,7 +31690,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32401,7 +31706,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32417,7 +31722,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32432,9 +31737,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32442,7 +31745,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32453,7 +31756,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32462,7 +31765,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32474,7 +31777,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32482,7 +31785,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32578,7 +31881,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32621,7 +31924,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32948,7 +32251,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32964,7 +32267,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32980,7 +32283,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32996,7 +32299,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33012,7 +32315,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33027,9 +32330,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33037,7 +32338,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33048,7 +32349,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33057,7 +32358,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33069,7 +32370,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33077,7 +32378,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33173,7 +32474,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33216,7 +32517,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
